--- a/aux data/Prevalencija po godini, bolesti i dobnoj skupini/Konstantna stopa prevalencije.xlsx
+++ b/aux data/Prevalencija po godini, bolesti i dobnoj skupini/Konstantna stopa prevalencije.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oboljenja" sheetId="1" r:id="rId1"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E836"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L266" sqref="L266"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15615,8 +15615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
